--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -5,33 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Projects/100 Behaviour Change/BCIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A84F6F7-8915-6649-BE57-CF8C9DD051A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2899219-4A2E-2A4B-9B0E-8E1AFC83AF34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23380" yWindow="2440" windowWidth="17100" windowHeight="14640" xr2:uid="{604AF3A6-D422-E442-9CF6-B68E3112ADD6}"/>
+    <workbookView xWindow="5380" yWindow="2080" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -78,15 +72,9 @@
     <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
   </si>
   <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]</t>
-  </si>
-  <si>
     <t>planned process [OBI:0000011]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]</t>
-  </si>
-  <si>
     <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>http://purl.obolibrary.org/obo/envo.owl</t>
   </si>
   <si>
-    <t>environment [ENVO:01000254]</t>
-  </si>
-  <si>
     <t>MF</t>
   </si>
   <si>
@@ -130,13 +115,61 @@
   </si>
   <si>
     <t xml:space="preserve">has occurrent part [BFO:0000117]; has profile [BFO:0000119] </t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>geographic location [GAZ:00000448]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO_0000029]</t>
+  </si>
+  <si>
+    <t>OMRSE</t>
+  </si>
+  <si>
+    <t>PDRO</t>
+  </si>
+  <si>
+    <t>pharmacy facility [PDRO:0000074]</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>psychiatric facility [NCIT:C53536]; transportation [NCIT:C141286]; public transportation [NCIT:C141287]</t>
+  </si>
+  <si>
+    <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:01000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/gaz</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/omrse.owl</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/pdro.owl</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ncit.owl</t>
+  </si>
+  <si>
+    <t>abnormal cell [NCIT:C12913]</t>
+  </si>
+  <si>
+    <t>facility [OMRSE:00000062]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; hospice facility [OMRSE:00000104]; rehabilitation facility [OMRSE:00000106]; school facility [OMRSE:00000064]</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +181,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,6 +223,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,18 +540,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B397BD8-3473-1443-8C65-12118EA78F56}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="59.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -520,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -534,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -548,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -562,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -576,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -590,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -604,52 +647,108 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2899219-4A2E-2A4B-9B0E-8E1AFC83AF34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0E77E-6932-0C4F-9C6F-CF4A96F577E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="2080" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="2080" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>psychiatric facility [NCIT:C53536]; transportation [NCIT:C141286]; public transportation [NCIT:C141287]</t>
   </si>
   <si>
-    <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:01000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/gaz</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]</t>
+  </si>
+  <si>
+    <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
@@ -714,13 +714,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -742,10 +742,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0E77E-6932-0C4F-9C6F-CF4A96F577E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DEC83E-D3DF-024A-B841-F8A4598206C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="2080" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
+  </si>
+  <si>
+    <t>Intermediates</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +561,7 @@
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -568,8 +574,11 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -582,8 +591,11 @@
       <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -596,8 +608,11 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -610,8 +625,11 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -624,8 +642,11 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -638,8 +659,11 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -652,8 +676,11 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -666,8 +693,11 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -680,8 +710,11 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -694,8 +727,11 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -708,8 +744,11 @@
       <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -722,8 +761,11 @@
       <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -736,8 +778,11 @@
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -749,6 +794,9 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DEC83E-D3DF-024A-B841-F8A4598206C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65906EB5-CD90-E44B-BC0E-37C51E3B32A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="2080" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="1220" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -108,9 +108,6 @@
     <t>http://purl.obolibrary.org/obo/mf.owl</t>
   </si>
   <si>
-    <t>planned process [OBI:0000011]; organisation [OBI:0000245]</t>
-  </si>
-  <si>
     <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]</t>
   </si>
   <si>
@@ -135,12 +132,6 @@
     <t>pharmacy facility [PDRO:0000074]</t>
   </si>
   <si>
-    <t>NCIT</t>
-  </si>
-  <si>
-    <t>psychiatric facility [NCIT:C53536]; transportation [NCIT:C141286]; public transportation [NCIT:C141287]</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/gaz</t>
   </si>
   <si>
@@ -150,12 +141,6 @@
     <t>http://purl.obolibrary.org/obo/pdro.owl</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ncit.owl</t>
-  </si>
-  <si>
-    <t>abnormal cell [NCIT:C12913]</t>
-  </si>
-  <si>
     <t>facility [OMRSE:00000062]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; hospice facility [OMRSE:00000104]; rehabilitation facility [OMRSE:00000106]; school facility [OMRSE:00000064]</t>
   </si>
   <si>
@@ -169,6 +154,12 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>planned process [OBI:0000011]; organisation [OBI:0000245]; plan [OBI:0000260]</t>
+  </si>
+  <si>
+    <t>Prefix</t>
   </si>
 </sst>
 </file>
@@ -547,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +552,7 @@
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,10 +566,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -589,13 +583,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -606,13 +600,13 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -623,13 +617,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -640,13 +634,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -660,10 +654,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -674,13 +668,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -694,10 +688,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -708,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -728,75 +722,58 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65906EB5-CD90-E44B-BC0E-37C51E3B32A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7481E78A-5485-914C-A1F9-C5842B1C3623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="1220" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>geographic location [GAZ:00000448]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO_0000029]</t>
-  </si>
-  <si>
     <t>OMRSE</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>facility [OMRSE:00000062]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; hospice facility [OMRSE:00000104]; rehabilitation facility [OMRSE:00000106]; school facility [OMRSE:00000064]</t>
   </si>
   <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]</t>
-  </si>
-  <si>
     <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Prefix</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -603,7 +603,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -634,10 +634,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -702,10 +702,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>30</v>
@@ -739,41 +739,41 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7481E78A-5485-914C-A1F9-C5842B1C3623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C0A15-9DAD-F44F-9EB8-A82F67C73A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1220" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15020" yWindow="-13600" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]</t>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034]</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C0A15-9DAD-F44F-9EB8-A82F67C73A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430A760-F580-E745-B996-85890A265D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="-13600" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -102,9 +102,6 @@
     <t>MF</t>
   </si>
   <si>
-    <t>person [MF:0000016]</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/mf.owl</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>facility [OMRSE:00000062]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; hospice facility [OMRSE:00000104]; rehabilitation facility [OMRSE:00000106]; school facility [OMRSE:00000064]</t>
   </si>
   <si>
-    <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
-  </si>
-  <si>
     <t>Intermediates</t>
   </si>
   <si>
@@ -156,17 +150,62 @@
     <t>Prefix</t>
   </si>
   <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]</t>
-  </si>
-  <si>
     <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034]</t>
+  </si>
+  <si>
+    <t>ADDICTO</t>
+  </si>
+  <si>
+    <t>MFOEM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
+  </si>
+  <si>
+    <t>UBERON</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/uberon.owl</t>
+  </si>
+  <si>
+    <t>bodily feeling [MFOEM:000202];appraisal of pleasantness [MFOEM:000061];anger [MFOEM:000009];disgust [MFOEM:000019 ];appraisal [MFOEM:000005];appraisal of goal importance [MFOEM:000072];animal-nature disgust [MFOEM:000021];appraisal of avoidability of consequences [MFOEM:000091];appraisal of expectedness [MFOEM:000060];affective process [MFOEM:000195];appraisal of dangerousness [MFOEM:000103];anxiety [MFOEM:000028];appraisal of desirability of consequences [MFOEM:000085];emotion process [MFOEM:000001 ];appraisal as caused by an other [MFOEM:000078];appraisal of causal agency [MFOEM:000075];core disgust [MFOEM:000020];emotional action tendency [MFOEM:000007 ];appraisal as caused by self [MFOEM:000076];appraisal process [MFOEM:000002]</t>
+  </si>
+  <si>
+    <t>anatomical structure [UBERON:0000061]</t>
+  </si>
+  <si>
+    <t>addiction [ADDICTO:0000349]</t>
+  </si>
+  <si>
+    <t>OGMS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ogms.owl</t>
+  </si>
+  <si>
+    <t>bodily process [OGMS:0000060]</t>
+  </si>
+  <si>
+    <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064];﻿ecosystem [ENVO:01001110];﻿environmental disposition [ENVO:01000452]</t>
+  </si>
+  <si>
+    <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074 ];consciousness [MF:0000017];person [MF:0000016]</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/master/addicto.owl</t>
+  </si>
+  <si>
+    <t>"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +226,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCDBE97"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -224,6 +269,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,15 +584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
@@ -566,13 +612,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -583,10 +629,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -600,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -617,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -634,10 +680,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -654,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -668,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -688,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -702,47 +748,47 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -753,30 +799,102 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,6 +910,34 @@
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PATO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/pato.owl</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>continuant [BFO:0000002]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>frequency [PATO:0000044]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; information content entity [IAO:0000030]</t>
+          <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; information content entity [IAO:0000030];curation status specification [IAO:0000078]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Upper Level BCIO/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD47A61-4B3F-FD45-8E47-8EC8747DDC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479D623-4DEE-8E45-8C80-394505008D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -118,9 +131,6 @@
     <t>GAZ</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/gaz</t>
-  </si>
-  <si>
     <t>geographic location [GAZ:00000448]</t>
   </si>
   <si>
@@ -206,13 +216,16 @@
   </si>
   <si>
     <t>has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/gaz.owl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +238,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,14 +265,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,7 +579,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -726,14 +750,14 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -741,16 +765,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -758,16 +782,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -775,36 +799,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -812,16 +836,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -829,16 +853,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -846,16 +870,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -863,22 +887,25 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{421C846E-E525-7747-B833-730F0C5C8B3D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479D623-4DEE-8E45-8C80-394505008D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D67B5B-25AF-B946-8611-F0B107BB4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>http://purl.obolibrary.org/obo/ro.owl</t>
   </si>
   <si>
-    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]</t>
-  </si>
-  <si>
     <t>BFO-DEV</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>http://purl.obolibrary.org/obo/bfo.owl</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region[BFO:0000038]</t>
-  </si>
-  <si>
     <t>IAO</t>
   </si>
   <si>
@@ -219,13 +213,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/gaz.owl</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region[BFO:0000038]; exists at [BFO:0000108]</t>
+  </si>
+  <si>
+    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,14 +238,6 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,17 +257,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,7 +568,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -646,16 +635,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -663,16 +652,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -680,16 +669,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -697,16 +686,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -714,16 +703,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -731,16 +720,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -748,16 +737,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -765,16 +754,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -782,16 +771,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -799,36 +788,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -836,16 +825,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -853,16 +842,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -870,16 +859,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -887,25 +876,22 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{421C846E-E525-7747-B833-730F0C5C8B3D}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D67B5B-25AF-B946-8611-F0B107BB4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C887E5-0AB2-8E4B-8C77-06EA6A1AE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>http://purl.obolibrary.org/obo/iao.owl</t>
   </si>
   <si>
-    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; information content entity [IAO:0000030];curation status specification [IAO:0000078]</t>
-  </si>
-  <si>
     <t>OBI</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]</t>
+  </si>
+  <si>
+    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; information content entity [IAO:0000030];curation status specification [IAO:0000078]; has curation status [IAO:0000114]</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -788,36 +788,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C887E5-0AB2-8E4B-8C77-06EA6A1AE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2D1EF-00B4-AF40-9861-C1264F4AB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>http://purl.obolibrary.org/obo/mf.owl</t>
   </si>
   <si>
-    <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074 ];consciousness [MF:0000017];person [MF:0000016]</t>
-  </si>
-  <si>
     <t>OGMS</t>
   </si>
   <si>
@@ -212,13 +209,16 @@
     <t>http://purl.obolibrary.org/obo/gaz.owl</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region[BFO:0000038]; exists at [BFO:0000108]</t>
-  </si>
-  <si>
     <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]</t>
   </si>
   <si>
     <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; information content entity [IAO:0000030];curation status specification [IAO:0000078]; has curation status [IAO:0000114]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region[BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]</t>
+  </si>
+  <si>
+    <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -876,22 +876,23 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2D1EF-00B4-AF40-9861-C1264F4AB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7084B-6A28-284A-92C1-D416A6470AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
   </si>
   <si>
-    <t>bodily feeling [MFOEM:000202];appraisal of pleasantness [MFOEM:000061];anger [MFOEM:000009];disgust [MFOEM:000019 ];appraisal [MFOEM:000005];appraisal of goal importance [MFOEM:000072];animal-nature disgust [MFOEM:000021];appraisal of avoidability of consequences [MFOEM:000091];appraisal of expectedness [MFOEM:000060];affective process [MFOEM:000195];appraisal of dangerousness [MFOEM:000103];anxiety [MFOEM:000028];appraisal of desirability of consequences [MFOEM:000085];emotion process [MFOEM:000001 ];appraisal as caused by an other [MFOEM:000078];appraisal of causal agency [MFOEM:000075];core disgust [MFOEM:000020];emotional action tendency [MFOEM:000007 ];appraisal as caused by self [MFOEM:000076];appraisal process [MFOEM:000002]</t>
-  </si>
-  <si>
     <t>UBERON</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]</t>
+  </si>
+  <si>
+    <t>bodily feeling [MFOEM:000202];appraisal of pleasantness [MFOEM:000061];anger [MFOEM:000009];disgust [MFOEM:000019];appraisal [MFOEM:000005];appraisal of goal importance [MFOEM:000072];animal-nature disgust [MFOEM:000021];appraisal of avoidability of consequences [MFOEM:000091];appraisal of expectedness [MFOEM:000060];affective process [MFOEM:000195];appraisal of dangerousness [MFOEM:000103];anxiety [MFOEM:000028];appraisal of desirability of consequences [MFOEM:000085];emotion process [MFOEM:000001];appraisal as caused by an other [MFOEM:000078];appraisal of causal agency [MFOEM:000075];core disgust [MFOEM:000020];emotional action tendency [MFOEM:000007];appraisal as caused by self [MFOEM:000076];appraisal process [MFOEM:000002]</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7084B-6A28-284A-92C1-D416A6470AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60963846-38E9-454B-90DC-7309CD13CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,13 +212,13 @@
     <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; information content entity [IAO:0000030];curation status specification [IAO:0000078]; has curation status [IAO:0000114]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region[BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]</t>
-  </si>
-  <si>
     <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]</t>
   </si>
   <si>
     <t>bodily feeling [MFOEM:000202];appraisal of pleasantness [MFOEM:000061];anger [MFOEM:000009];disgust [MFOEM:000019];appraisal [MFOEM:000005];appraisal of goal importance [MFOEM:000072];animal-nature disgust [MFOEM:000021];appraisal of avoidability of consequences [MFOEM:000091];appraisal of expectedness [MFOEM:000060];affective process [MFOEM:000195];appraisal of dangerousness [MFOEM:000103];anxiety [MFOEM:000028];appraisal of desirability of consequences [MFOEM:000085];emotion process [MFOEM:000001];appraisal as caused by an other [MFOEM:000078];appraisal of causal agency [MFOEM:000075];core disgust [MFOEM:000020];emotional action tendency [MFOEM:000007];appraisal as caused by self [MFOEM:000076];appraisal process [MFOEM:000002]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60963846-38E9-454B-90DC-7309CD13CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BAC94-3867-5742-BE1F-CD7E78B609DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -74,18 +74,12 @@
     <t>http://purl.obolibrary.org/obo/ro.owl</t>
   </si>
   <si>
-    <t>BFO-DEV</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
   </si>
   <si>
     <t>BFO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/bfo.owl</t>
-  </si>
-  <si>
     <t>IAO</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>minimal</t>
   </si>
   <si>
-    <t>has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/gaz.owl</t>
   </si>
   <si>
@@ -218,7 +209,7 @@
     <t>bodily feeling [MFOEM:000202];appraisal of pleasantness [MFOEM:000061];anger [MFOEM:000009];disgust [MFOEM:000019];appraisal [MFOEM:000005];appraisal of goal importance [MFOEM:000072];animal-nature disgust [MFOEM:000021];appraisal of avoidability of consequences [MFOEM:000091];appraisal of expectedness [MFOEM:000060];affective process [MFOEM:000195];appraisal of dangerousness [MFOEM:000103];anxiety [MFOEM:000028];appraisal of desirability of consequences [MFOEM:000085];emotion process [MFOEM:000001];appraisal as caused by an other [MFOEM:000078];appraisal of causal agency [MFOEM:000075];core disgust [MFOEM:000020];emotional action tendency [MFOEM:000007];appraisal as caused by self [MFOEM:000076];appraisal process [MFOEM:000002]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]</t>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]</t>
   </si>
 </sst>
 </file>
@@ -565,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -635,16 +626,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -661,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -678,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -686,16 +677,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -703,16 +694,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -720,13 +711,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -740,13 +731,13 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -754,16 +745,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -771,39 +762,39 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -817,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -825,16 +816,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -851,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -859,36 +850,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -844,7 +844,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]</t>
+          <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]; bodily disposition [MF:0000032]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]</t>
+          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bodily process [OGMS:0000060]</t>
+          <t>bodily process [OGMS:0000060]; extended organism [OGMS:0000087]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]</t>
+          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,7 +511,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,7 +538,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,7 +565,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,7 +592,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,7 +619,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -652,7 +646,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,7 +673,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,7 +700,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,7 +727,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -824,7 +813,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,7 +840,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,7 +867,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -908,7 +894,28 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bcio</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>personal attribute [BCIO:050300]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]</t>
+          <t>exists at [BFO:0000108]; independent continuant [BFO:0000004]; spatial region [BFO:0000006]; role [BFO:0000023]; temporal region [BFO:0000008]; function [BFO:0000034]; has profile [BFO:0000119]; specifically dependent continuant [BFO:0000020]; occurrent [BFO:0000003]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; process profile [BFO:0000144]; process [BFO:0000015]; object [BFO:0000030]; one-dimensional temporal region [BFO:0000038]; object aggregate [BFO:0000027]; site [BFO:0000029]; has occurrent part [BFO:0000117]; disposition [BFO:0000016]; process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,6 +512,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,6 +540,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +568,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -592,6 +596,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +624,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +652,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -673,6 +680,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -700,6 +708,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -727,6 +736,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -786,6 +796,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -813,6 +824,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -840,6 +852,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -867,6 +880,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -894,28 +908,7 @@
           <t>minimal</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bcio</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>personal attribute [BCIO:050300]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -484,7 +484,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,7 +511,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,7 +538,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,7 +565,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,7 +592,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,7 +619,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -652,7 +646,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,7 +673,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,7 +700,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,7 +727,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>addiction [ADDICTO:0000349]</t>
+          <t>craving [ADDICTO:0000511]; addiction [ADDICTO:0000349]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -824,7 +813,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,7 +840,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,7 +867,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -908,7 +894,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bodily feeling [MFOEM:000202];appraisal of pleasantness [MFOEM:000061];anger [MFOEM:000009];disgust [MFOEM:000019];appraisal [MFOEM:000005];appraisal of goal importance [MFOEM:000072];animal-nature disgust [MFOEM:000021];appraisal of avoidability of consequences [MFOEM:000091];appraisal of expectedness [MFOEM:000060];affective process [MFOEM:000195];appraisal of dangerousness [MFOEM:000103];anxiety [MFOEM:000028];appraisal of desirability of consequences [MFOEM:000085];emotion process [MFOEM:000001];appraisal as caused by an other [MFOEM:000078];appraisal of causal agency [MFOEM:000075];core disgust [MFOEM:000020];emotional action tendency [MFOEM:000007];appraisal as caused by self [MFOEM:000076];appraisal process [MFOEM:000002]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; anxiety [MFOEM:000028]; fear [MFOEM:000026]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; anxiety [MFOEM:000028]; fear [MFOEM:000026]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; fear [MFOEM:000026]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; feeling at ease [MFOEM:000107]; appraisal of dangerousness [MFOEM:000103]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; fear [MFOEM:000026]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; feeling at ease [MFOEM:000107]; appraisal of dangerousness [MFOEM:000103]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; fear [MFOEM:000026]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; emotional action tendency [MFOEM:000007]; feeling exhausted [MFOEM:000112]; appraisal of dangerousness [MFOEM:000103]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; fear [MFOEM:000026]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; emotional action tendency [MFOEM:000007]; feeling exhausted [MFOEM:000112]; appraisal of dangerousness [MFOEM:000103]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; emotional action tendency [MFOEM:000007]; feeling nervous [MFOEM:000124]; appraisal of dangerousness [MFOEM:000103]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>craving [ADDICTO:0000511]; addiction [ADDICTO:0000349]</t>
+          <t>craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; emotional action tendency [MFOEM:000007]; feeling nervous [MFOEM:000124]; appraisal of dangerousness [MFOEM:000103]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; fear [MFOEM:000026]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]</t>
+          <t>craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; group identity [ADDICTO:0000715]; addiction [ADDICTO:0000349]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; fear [MFOEM:000026]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; anxiety [MFOEM:000028]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,34 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/go.owl</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>habituation [GO:0046959]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; anxiety [MFOEM:000028]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
+          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -921,7 +921,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
+          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; hunger [MFOEM:000205]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; group identity [ADDICTO:0000715]; addiction [ADDICTO:0000349]</t>
+          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -913,7 +913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>habituation [GO:0046959]</t>
+          <t>imitative learning [GO:0098596]; habituation [GO:0046959]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; hunger [MFOEM:000205]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
+          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; feeling tired [MFOEM:000080]; appraisal process [MFOEM:000002]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; hunger [MFOEM:000205]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]; bodily disposition [MF:0000032]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; judging [MF:0000006]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; judging [MF:0000006]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; judging [MF:0000006]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; judging [MF:0000006]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; judging [MF:0000006]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; feeling tired [MFOEM:000080]; appraisal process [MFOEM:000002]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; hunger [MFOEM:000205]</t>
+          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; hunger [MFOEM:000205]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; appraisal process [MFOEM:000002]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; disgust [MFOEM:000019]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; hunger [MFOEM:000205]; appraisal of dangerousness [MFOEM:000103]; feeling tired [MFOEM:000080]</t>
+          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; feeling tired [MFOEM:000080]; appraisal process [MFOEM:000002]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; hunger [MFOEM:000205]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -913,7 +913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>imitative learning [GO:0098596]; habituation [GO:0046959]</t>
+          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; habituation [GO:0046959]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -913,7 +913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; habituation [GO:0046959]</t>
+          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; habituation [GO:0046959]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; feeling tired [MFOEM:000080]; appraisal process [MFOEM:000002]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; fear [MFOEM:000026]; disgust [MFOEM:000019]; anxiety [MFOEM:000028]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; hunger [MFOEM:000205]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; judging [MF:0000006]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; judging [MF:0000006]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; judging [MF:0000006]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; judging [MF:0000006]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; judging [MF:0000006]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; judging [MF:0000006]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; personal capability [MF:0000043]; planning [MF:0000027]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; pleasure [MFOEM:000035]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; pleasure [MFOEM:000035]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; satisfaction [MFOEM:000169]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]</t>
+          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; self-identity [ADDICTO:0000399]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -913,7 +913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; habituation [GO:0046959]</t>
+          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; satisfaction [MFOEM:000169]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; satisfaction [MFOEM:000169]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; satisfaction [MFOEM:000169]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; satisfaction [MFOEM:000169]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; shame [MFOEM:000055]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; self-identity [ADDICTO:0000399]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]</t>
+          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; self-identity [ADDICTO:0000399]; addiction [ADDICTO:0000349]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]; social identity [ADDICTO:0001087]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; anger [MFOEM:000009]; satisfaction [MFOEM:000169]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; shame [MFOEM:000055]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; subjective affective feeling [MFOEM:000006]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; satisfaction [MFOEM:000169]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; shame [MFOEM:000055]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; judging [MF:0000006]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; personal capability [MF:0000043]; planning [MF:0000027]; cognitive representation [MF:0000031]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; judging [MF:0000006]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; personal capability [MF:0000043]; planning [MF:0000027]; cognitive representation [MF:0000031]; subliminal process [MF:0000088]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; self-identity [ADDICTO:0000399]; addiction [ADDICTO:0000349]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]; social identity [ADDICTO:0001087]</t>
+          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; self-identity [ADDICTO:0000399]; addiction [ADDICTO:0000349]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]; substance dependence [ADDICTO:0001140]; social identity [ADDICTO:0001087]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; subjective affective feeling [MFOEM:000006]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; satisfaction [MFOEM:000169]; anger [MFOEM:000009]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; shame [MFOEM:000055]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; subjective affective feeling [MFOEM:000006]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; surprise [MFOEM:000032]; anger [MFOEM:000009]; satisfaction [MFOEM:000169]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; shame [MFOEM:000055]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; judging [MF:0000006]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; personal capability [MF:0000043]; planning [MF:0000027]; cognitive representation [MF:0000031]; subliminal process [MF:0000088]; consciousness [MF:0000017]; perception [MF:0000019]; person [MF:0000016]; arousal [MF:0000012]; attending [MF:0000018]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; person [MF:0000016]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; person [MF:0000016]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>identity [ADDICTO:0000381]; feeling of need satisfaction [ADDICTO:0000377]; self-identity [ADDICTO:0000399]; addiction [ADDICTO:0000349]; craving [ADDICTO:0000511]; group identity [ADDICTO:0000715]; substance dependence [ADDICTO:0001140]; social identity [ADDICTO:0001087]</t>
+          <t>identity [ADDICTO:0000381]; self-identity [ADDICTO:0000399]; craving [ADDICTO:0000511]; substance dependence [ADDICTO:0001140]; social identity [ADDICTO:0001087]; adult [ADDICTO:0000352]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; group identity [ADDICTO:0000715]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +922,34 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>education process [SDGIO:00010001]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -940,7 +940,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>education process [SDGIO:00010001]</t>
+          <t>employment status [SDGIO:00010029]; education process [SDGIO:00010001]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -948,7 +948,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>exists at [BFO:0000108]; independent continuant [BFO:0000004]; spatial region [BFO:0000006]; role [BFO:0000023]; temporal region [BFO:0000008]; function [BFO:0000034]; has profile [BFO:0000119]; specifically dependent continuant [BFO:0000020]; occurrent [BFO:0000003]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; process profile [BFO:0000144]; process [BFO:0000015]; object [BFO:0000030]; one-dimensional temporal region [BFO:0000038]; object aggregate [BFO:0000027]; site [BFO:0000029]; has occurrent part [BFO:0000117]; disposition [BFO:0000016]; process profile of [BFO:0000133]</t>
+          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; hospice facility [OMRSE:00000104]; rehabilitation facility [OMRSE:00000106]; school facility [OMRSE:00000064]</t>
+          <t>rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -940,7 +940,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>employment status [SDGIO:00010029]; education process [SDGIO:00010001]</t>
+          <t>owner [SDGIO:00010028]; education process [SDGIO:00010001]; employment status [SDGIO:00010029]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>planned process [OBI:0000011]; organisation [OBI:0000245]; plan [OBI:0000260]</t>
+          <t>patient role [OBI:0000093]; plan [OBI:0000260]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]</t>
+          <t>rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; policy holder role [OMRSE:00000094]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +949,34 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OPMI</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/opmi.owl</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>socioeconomic status [OPMI:0000121]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>identity [ADDICTO:0000381]; self-identity [ADDICTO:0000399]; craving [ADDICTO:0000511]; substance dependence [ADDICTO:0001140]; social identity [ADDICTO:0001087]; adult [ADDICTO:0000352]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; group identity [ADDICTO:0000715]</t>
+          <t>identity [ADDICTO:0000381]; self-identity [ADDICTO:0000399]; craving [ADDICTO:0000511]; substance dependence [ADDICTO:0001140]; social identity [ADDICTO:0001087]; adult [ADDICTO:0000352]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; group identity [ADDICTO:0000715]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -975,7 +975,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -940,7 +940,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>owner [SDGIO:00010028]; education process [SDGIO:00010001]; employment status [SDGIO:00010029]</t>
+          <t>owner [SDGIO:00010028]; employment status [SDGIO:00010029]; education process [SDGIO:00010001]; unemployed status [SDGIO:00010026]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,6 +976,34 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BCIO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/bcio.owl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>adult population statistic [BCIO:015224]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA5789-A848-0246-9F2B-5259A8D8E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE015EF-EA21-6B48-AC3B-3B7E57A9C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -211,9 +211,6 @@
     <t>SDGIO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
-  </si>
-  <si>
     <t>owner [SDGIO:00010028]; employment status [SDGIO:00010029]; education process [SDGIO:00010001]; unemployed status [SDGIO:00010026]</t>
   </si>
   <si>
@@ -224,6 +221,12 @@
   </si>
   <si>
     <t>socioeconomic status [OPMI:0000121]</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SDG-InterfaceOntology/sdgio/master/sdgio.owl</t>
+  </si>
+  <si>
+    <t>"SDGIO: http://purl.unep.org/sdg/SDGIO_"</t>
   </si>
 </sst>
 </file>
@@ -265,9 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +577,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -873,7 +877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -890,35 +894,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -484,7 +484,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,7 +511,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,7 +538,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,7 +565,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,7 +592,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,7 +619,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -652,7 +646,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,7 +673,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,7 +700,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,7 +727,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -788,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>animal-nature disgust [MFOEM:000021]; appraisal process [MFOEM:000002]; feeling energetic [MFOEM:000109]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; subjective affective feeling [MFOEM:000006]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of expectedness [MFOEM:000060]; surprise [MFOEM:000032]; anger [MFOEM:000009]; satisfaction [MFOEM:000169]; appraisal of pleasantness [MFOEM:000061]; interpersonal disgust [MFOEM:000022]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; appraisal as caused by self [MFOEM:000076]; shame [MFOEM:000055]; emotion process [MFOEM:000001]; feeling at ease [MFOEM:000107]; feeling exhausted [MFOEM:000112]; feeling nervous [MFOEM:000124]; feeling tired [MFOEM:000080]; hunger [MFOEM:000205]; happiness [MFOEM:000042]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; positive surprise [MFOEM:000209]; affective process [MFOEM:000195]; sexual pleasure [MFOEM:000040]; sadness [MFOEM:000056]; disgust [MFOEM:000019]; fear [MFOEM:000026]; guilt [MFOEM:000053]; anxiety [MFOEM:000028]; pain [MFOEM:000203]; physiological process involved in an emotion [MFOEM:000003]; bodily feeling [MFOEM:000202]; appraisal as caused by an other [MFOEM:000078]; emotional action tendency [MFOEM:000007]; appraisal of dangerousness [MFOEM:000103]; negative surprise [MFOEM:000210]</t>
+          <t>core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; happiness [MFOEM:000042]; physiological process involved in an emotion [MFOEM:000003]; appraisal as caused by an other [MFOEM:000078]; sadness [MFOEM:000056]; interpersonal disgust [MFOEM:000022]; feeling at ease [MFOEM:000107]; appraisal [MFOEM:000005]; emotion process [MFOEM:000001]; moral disgust [MFOEM:000023]; feeling nervous [MFOEM:000124]; positive surprise [MFOEM:000209]; appraisal of pleasantness [MFOEM:000061]; anxiety [MFOEM:000028]; surprise [MFOEM:000032]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; subjective affective feeling [MFOEM:000006]; negative surprise [MFOEM:000210]; appraisal of expectedness [MFOEM:000060]; sexual pleasure [MFOEM:000040]; affective process [MFOEM:000195]; hunger [MFOEM:000205]; satisfaction [MFOEM:000169]; feeling energetic [MFOEM:000109]; animal-nature disgust [MFOEM:000021]; pain [MFOEM:000203]; appraisal of dangerousness [MFOEM:000103]; emotional action tendency [MFOEM:000007]; mood process [MFOEM:000193]; guilt [MFOEM:000053]; fear [MFOEM:000026]; appraisal of avoidability of consequences [MFOEM:000091]; feeling exhausted [MFOEM:000112]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; bodily feeling [MFOEM:000202]; disgust [MFOEM:000019]; shame [MFOEM:000055]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -824,7 +813,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,7 +840,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,7 +867,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -908,7 +894,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -936,7 +921,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -996,7 +980,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]; happens during [RO:0002092]</t>
+          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; part of [BFO:0000050]; happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -484,6 +484,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,6 +512,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,6 +540,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +568,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -592,6 +596,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +624,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +652,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -673,6 +680,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -700,6 +708,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -727,6 +736,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -786,6 +796,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -813,6 +824,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -840,6 +852,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -867,6 +880,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -894,6 +908,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -921,6 +936,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -980,6 +996,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]</t>
+          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]; occurs in [BFO:0000066]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]</t>
+          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]; entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]; happens during [RO:0002092]</t>
+          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; part of [BFO:0000050]; happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -484,6 +484,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]</t>
+          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]; occurs in [BFO:0000066]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -511,6 +512,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]</t>
+          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]; entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -538,6 +540,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,6 +568,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -592,6 +596,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +624,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +652,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -673,6 +680,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -700,6 +708,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -727,6 +736,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -786,6 +796,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -813,6 +824,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -840,6 +852,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -867,6 +880,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -894,6 +908,7 @@
           <t>minimal</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -921,6 +936,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -980,6 +996,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/ontologies/Upper Level BCIO/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/ontologies/Upper Level BCIO/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D4EA73-B706-E34F-BD8B-BFDD58B765EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{09D4EA73-B706-E34F-BD8B-BFDD58B765EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC35D133-1528-4BD5-A9E6-A4E1B944C2AB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>http://purl.obolibrary.org/obo/omrse.owl</t>
   </si>
   <si>
-    <t>rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; policy holder role [OMRSE:00000094]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]</t>
-  </si>
-  <si>
     <t>PDRO</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>research activity [SEPIO:0000004]</t>
+  </si>
+  <si>
+    <t>rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; policy holder role [OMRSE:00000094]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]; architectural structure [OMRSE:00000061]</t>
   </si>
 </sst>
 </file>
@@ -584,17 +584,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -648,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -761,183 +761,183 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="160" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="256" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -844,7 +844,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]</t>
+          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; happiness [MFOEM:000042]; physiological process involved in an emotion [MFOEM:000003]; appraisal as caused by an other [MFOEM:000078]; sadness [MFOEM:000056]; interpersonal disgust [MFOEM:000022]; feeling at ease [MFOEM:000107]; appraisal [MFOEM:000005]; emotion process [MFOEM:000001]; moral disgust [MFOEM:000023]; feeling nervous [MFOEM:000124]; positive surprise [MFOEM:000209]; appraisal of pleasantness [MFOEM:000061]; anxiety [MFOEM:000028]; surprise [MFOEM:000032]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; subjective affective feeling [MFOEM:000006]; negative surprise [MFOEM:000210]; appraisal of expectedness [MFOEM:000060]; sexual pleasure [MFOEM:000040]; affective process [MFOEM:000195]; hunger [MFOEM:000205]; satisfaction [MFOEM:000169]; feeling energetic [MFOEM:000109]; animal-nature disgust [MFOEM:000021]; pain [MFOEM:000203]; appraisal of dangerousness [MFOEM:000103]; emotional action tendency [MFOEM:000007]; mood process [MFOEM:000193]; guilt [MFOEM:000053]; fear [MFOEM:000026]; appraisal of avoidability of consequences [MFOEM:000091]; feeling exhausted [MFOEM:000112]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; bodily feeling [MFOEM:000202]; disgust [MFOEM:000019]; shame [MFOEM:000055]</t>
+          <t>negative emotion [MFOEM:000212]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; happiness [MFOEM:000042]; physiological process involved in an emotion [MFOEM:000003]; appraisal as caused by an other [MFOEM:000078]; sadness [MFOEM:000056]; interpersonal disgust [MFOEM:000022]; feeling at ease [MFOEM:000107]; appraisal [MFOEM:000005]; emotion process [MFOEM:000001]; moral disgust [MFOEM:000023]; feeling nervous [MFOEM:000124]; positive surprise [MFOEM:000209]; appraisal of pleasantness [MFOEM:000061]; anxiety [MFOEM:000028]; surprise [MFOEM:000032]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; subjective affective feeling [MFOEM:000006]; negative surprise [MFOEM:000210]; appraisal of expectedness [MFOEM:000060]; sexual pleasure [MFOEM:000040]; affective process [MFOEM:000195]; hunger [MFOEM:000205]; satisfaction [MFOEM:000169]; feeling energetic [MFOEM:000109]; animal-nature disgust [MFOEM:000021]; pain [MFOEM:000203]; appraisal of dangerousness [MFOEM:000103]; emotional action tendency [MFOEM:000007]; mood process [MFOEM:000193]; guilt [MFOEM:000053]; fear [MFOEM:000026]; appraisal of avoidability of consequences [MFOEM:000091]; feeling exhausted [MFOEM:000112]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; bodily feeling [MFOEM:000202]; disgust [MFOEM:000019]; shame [MFOEM:000055]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -484,7 +484,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,7 +511,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,7 +538,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,7 +565,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,7 +592,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,7 +619,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -652,7 +646,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,7 +673,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,7 +700,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,7 +727,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -788,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>negative emotion [MFOEM:000212]; core disgust [MFOEM:000020]; appraisal of desirability of consequences [MFOEM:000085]; happiness [MFOEM:000042]; physiological process involved in an emotion [MFOEM:000003]; appraisal as caused by an other [MFOEM:000078]; sadness [MFOEM:000056]; interpersonal disgust [MFOEM:000022]; feeling at ease [MFOEM:000107]; appraisal [MFOEM:000005]; emotion process [MFOEM:000001]; moral disgust [MFOEM:000023]; feeling nervous [MFOEM:000124]; positive surprise [MFOEM:000209]; appraisal of pleasantness [MFOEM:000061]; anxiety [MFOEM:000028]; surprise [MFOEM:000032]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; subjective affective feeling [MFOEM:000006]; negative surprise [MFOEM:000210]; appraisal of expectedness [MFOEM:000060]; sexual pleasure [MFOEM:000040]; affective process [MFOEM:000195]; hunger [MFOEM:000205]; satisfaction [MFOEM:000169]; feeling energetic [MFOEM:000109]; animal-nature disgust [MFOEM:000021]; pain [MFOEM:000203]; appraisal of dangerousness [MFOEM:000103]; emotional action tendency [MFOEM:000007]; mood process [MFOEM:000193]; guilt [MFOEM:000053]; fear [MFOEM:000026]; appraisal of avoidability of consequences [MFOEM:000091]; feeling exhausted [MFOEM:000112]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; appraisal of causal agency [MFOEM:000075]; appraisal of goal importance [MFOEM:000072]; bodily feeling [MFOEM:000202]; disgust [MFOEM:000019]; shame [MFOEM:000055]</t>
+          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; surprise [MFOEM:000032]; sexual pleasure [MFOEM:000040]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; moral disgust [MFOEM:000023]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -824,7 +813,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,7 +840,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,7 +867,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -908,7 +894,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -936,7 +921,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -996,7 +980,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; surprise [MFOEM:000032]; sexual pleasure [MFOEM:000040]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; moral disgust [MFOEM:000023]</t>
+          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; appraisal of dangerousness [MFOEM:000103]; sadness [MFOEM:000056]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; interest [MFOEM:000033]; negative surprise [MFOEM:000210]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; moral disgust [MFOEM:000023]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; appraisal of dangerousness [MFOEM:000103]; sadness [MFOEM:000056]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; interest [MFOEM:000033]; negative surprise [MFOEM:000210]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; moral disgust [MFOEM:000023]</t>
+          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>identity [ADDICTO:0000381]; self-identity [ADDICTO:0000399]; craving [ADDICTO:0000511]; substance dependence [ADDICTO:0001140]; social identity [ADDICTO:0001087]; adult [ADDICTO:0000352]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; group identity [ADDICTO:0000715]</t>
+          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficialness [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficialness [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]</t>
+          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficialness [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
+          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficialness [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
+          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127];</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
+          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficialness [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
+          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127];</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127];</t>
+          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]; entity [BFO:0000001]</t>
+          <t>has profile [BFO:0000119]; occurrent [BFO:0000003]; function [BFO:0000034]; has occurrent part [BFO:0000117]; role [BFO:0000023]; process profile [BFO:0000144]; object [BFO:0000030]; process profile of [BFO:0000133]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; history [BFO:0000182]; immaterial entity [BFO:0000141]; process [BFO:0000015]; specifically dependent continuant [BFO:0000020]; site [BFO:0000029]; one-dimensional temporal region [BFO:0000038]; material entity [BFO:0000040]; temporal region [BFO:0000008]; exists at [BFO:0000108]; disposition [BFO:0000016]; independent continuant [BFO:0000004]; entity [BFO:0000001]; characteristic [BFO:0000020]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]</t>
+          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]; biological process [GO:0008150]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; policy holder role [OMRSE:00000094]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]; architectural structure [OMRSE:00000061]</t>
+          <t>money [OMRSE:00000235]; rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; policy holder role [OMRSE:00000094]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]; architectural structure [OMRSE:00000061]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
+          <t>drug withdrawal syndrome [ADDICTO:0001378]; negative self-identity [ADDICTO:0001377]; binge behaviour session [ADDICTO:0001350]; addiction development [ADDICTO:0001318]; abstinence violation effect [ADDICTO:0001317]; alcohol consumption pattern [ADDICTO:0001135]; public health promotion policy [ADDICTO:0001273];public policy [ADDICTO:0001109]; financial cost of a product or service [ADDICTO:0000750]; substance use [ADDICTO:0000721]; personal stake [ADDICTO:0000179]; self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
+          <t>emotional personality trait [MFOEM:000204]; feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
+          <t>personality trait [MF:0000203]; personality [MF:0000202]; communication[MF:0000040]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]; biological process [GO:0008150]</t>
+          <t>memory [GO:0007613]; imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]; biological process [GO:0008150]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -49,15 +50,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,13 +173,71 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -187,7 +245,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -210,7 +268,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -284,13 +342,24 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -312,9 +381,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -329,30 +400,33 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="2">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ontology ID</t>
@@ -685,7 +759,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/pdro/2021-06-08/pdro.owl</t>
+          <t>https://raw.githubusercontent.com/OpenLHS/PDRO/d13f8b472a14d54ed46ad0c9cd862e38d8f07b0e/pdro.owl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -717,7 +791,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://addictovocab.org/addicto.owl/2025-02-01</t>
+          <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/b2c6164c7b0d093499f84052438edee12feead00/addicto.owl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -754,7 +828,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM/2025-01-06/MFOEM.owl</t>
+          <t>https://raw.githubusercontent.com/jannahastings/emotion-ontology/247c3e33cf00189b0c688c76b5b008d324a43d24/ontology/MFOEM.owl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -818,7 +892,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MF/2022-07-19/MF.owl</t>
+          <t>https://raw.githubusercontent.com/jannahastings/mental-functioning-ontology/62aaff35a50acba4e11e735605dcf62647f9d27d/ontology/MF.owl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -946,7 +1020,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://purl.unep.org/sdg/releases/2018-08-10/sdgio.owl</t>
+          <t>https://raw.githubusercontent.com/SDG-InterfaceOntology/sdgio/d6f94a02435d103c6fe6fce057fbbe43d33f94aa/sdgio.owl</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -998,8 +1072,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>pharmacy facility [PDRO:0000074]</t>
+          <t>pharmacy facility [PDRO:0000074]; dose range specification [PDRO:0000117]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -833,7 +833,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>entity [BFO:0000001]; mistrust [MFOEM:000225]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -796,7 +796,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>entity [BFO:0000001]; harmfulness [ADDICTO:0000241]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -796,12 +796,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]; harmfulness [ADDICTO:0000241]</t>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>drug withdrawal syndrome [ADDICTO:0001378]; negative self-identity [ADDICTO:0001377]; binge behaviour session [ADDICTO:0001350]; addiction development [ADDICTO:0001318]; abstinence violation effect [ADDICTO:0001317]; alcohol consumption pattern [ADDICTO:0001135]; public health promotion policy [ADDICTO:0001273];public policy [ADDICTO:0001109]; financial cost of a product or service [ADDICTO:0000750]; substance use [ADDICTO:0000721]; personal stake [ADDICTO:0000179]; self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]</t>
+          <t>drug withdrawal syndrome [ADDICTO:0001378]; negative self-identity [ADDICTO:0001377]; binge behaviour session [ADDICTO:0001350]; addiction development [ADDICTO:0001318]; abstinence violation effect [ADDICTO:0001317]; alcohol consumption pattern [ADDICTO:0001135]; public health promotion policy [ADDICTO:0001273];public policy [ADDICTO:0001109]; financial cost of a product or service [ADDICTO:0000750]; substance use [ADDICTO:0000721]; personal stake [ADDICTO:0000179]; self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]; harmfulness [ADDICTO:0000241]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -833,12 +833,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]; mistrust [MFOEM:000225]</t>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>emotional personality trait [MFOEM:000204]; feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]</t>
+          <t>emotional personality trait [MFOEM:000204]; feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]; mistrust [MFOEM:000225]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -791,7 +791,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/b2c6164c7b0d093499f84052438edee12feead00/addicto.owl</t>
+          <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/24afc3aceca06fadfca939427d4f2b546f26791b/addicto.owl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -902,7 +902,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>personality trait [MF:0000203]; personality [MF:0000202]; communication[MF:0000040]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
+          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -745,6 +745,11 @@
           <t>money [OMRSE:00000235]; rehabilitation facility [OMRSE:00000106]; hospice facility [OMRSE:00000104]; household [OMRSE:00000076]; residential facility [OMRSE:00000191]; policy holder role [OMRSE:00000094]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; school facility [OMRSE:00000064]; facility [OMRSE:00000062]; architectural structure [OMRSE:00000061]</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>insured party role [OMRSE:00000092]</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>all</t>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -686,6 +686,11 @@
           <t>environment [ENVO:01000254]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064];﻿ecosystem [ENVO:01001110];﻿environmental disposition [ENVO:01000452]; environmental system [ENVO:01000254]</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>facility [ENVO:03501288]</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>all</t>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -917,7 +917,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
+          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021];</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -917,7 +917,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021];</t>
+          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021];;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/jannahastings/emotion-ontology/247c3e33cf00189b0c688c76b5b008d324a43d24/ontology/MFOEM.owl</t>
+          <t>https://raw.githubusercontent.com/jannahastings/emotion-ontology/e3a12f2527e13aa1e4f85e6aa63c5763ea49709c/ontology/MFOEM.owl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/jannahastings/mental-functioning-ontology/62aaff35a50acba4e11e735605dcf62647f9d27d/ontology/MF.owl</t>
+          <t>https://raw.githubusercontent.com/jannahastings/mental-functioning-ontology/29c0274bb98f6d2de0c078f85d4da18f11e562fd/ontology/MF.owl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -917,7 +917,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021];;</t>
+          <t>personality trait [MF:0000203]; personality [MF:0000202]; belief [MF:0000041]; cognitive process [MF:0000008]; bodily disposition [MF:0000032]; bodily quality [MF:0000074]; mental capability [MF:0000048]; mental imagery [MF:0000083]; planning [MF:0000027]; subliminal process [MF:0000088]; consciousness [MF:0000017]; arousal [MF:0000012]; attending [MF:0000018]; thinking [MF:0000013]; judging [MF:0000006]; personal capability [MF:0000043]; cognitive representation [MF:0000031]; perception [MF:0000019]; wanting [MF:0000045]; person [MF:0000016]; linguistic capability [MF:0000050]; interpersonal process [MF:0000021]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; part of [BFO:0000050]; happens during [RO:0002092]</t>
+          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; part of [BFO:0000050]; happens during [RO:0002092]; hello</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; part of [BFO:0000050]; happens during [RO:0002092]; hello</t>
+          <t xml:space="preserve">has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; part of [BFO:0000050]; happens during [RO:0002092]; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,32 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>copper</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://github.com/EBehaviourChange-COPPER/ontology/blob/main/COPPER.owl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>behaviour change plan barrier [COPPER:3049]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,32 +1091,6 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>copper</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://github.com/EBehaviourChange-COPPER/ontology/blob/main/COPPER.owl</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>behaviour change plan barrier [COPPER:3049]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/24afc3aceca06fadfca939427d4f2b546f26791b/addicto.owl</t>
+          <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/f38c1a6ce882a5738b114b35827232a9d2399a5c/addicto.owl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]; occurs in [BFO:0000066]</t>
+          <t>has input[RO:0002233]; has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]; occurs in [BFO:0000066]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>has input[RO:0002233]; has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; temporally related to [RO:0002222]; causal relation between entities [RO:0002506]; causally influenced by [RO:0002559]; overlaps [RO:0002131]; occurs in [BFO:0000066]</t>
+          <t>has output [RO:0002234]; realizes [BFO:0000055]; overlaps [RO:0002131]; output of [RO:0002353]; has input[RO:0002233]; has input [RO:0002233]; causally influenced by [RO:0002559]; causal relation between entities [RO:0002506]; temporally related to [RO:0002222]; realized in [BFO:0000054]; occurs in [BFO:0000066]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]; realizes [BFO:0000055]; overlaps [RO:0002131]; output of [RO:0002353]; has input[RO:0002233]; has input [RO:0002233]; causally influenced by [RO:0002559]; causal relation between entities [RO:0002506]; temporally related to [RO:0002222]; realized in [BFO:0000054]; occurs in [BFO:0000066]</t>
+          <t>has input [RO:0002233]; has output [RO:0002234]; realizes [BFO:0000055]; overlaps [RO:0002131]; output of [RO:0002353]; has input[RO:0002233]; has input [RO:0002233]; causally influenced by [RO:0002559]; causal relation between entities [RO:0002506]; temporally related to [RO:0002222]; realized in [BFO:0000054]; occurs in [BFO:0000066]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -853,7 +853,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>emotional personality trait [MFOEM:000204]; feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; emotional relevance appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; emotional relevance appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]; mistrust [MFOEM:000225]</t>
+          <t>emotional personality trait [MFOEM:000204]; feeling nervous [MFOEM:000124]; appraisal of pleasantness [MFOEM:000061]; sexual pleasure [MFOEM:000040]; surprise [MFOEM:000032]; mood process [MFOEM:000193]; physiological process involved in an emotion [MFOEM:000003]; fear [MFOEM:000026]; moral disgust [MFOEM:000023]; affective appraisal [MFOEM:000005]; disgust [MFOEM:000019]; negative emotion [MFOEM:000212]; affective appraisal process [MFOEM:000002]; appraisal as caused by self [MFOEM:000076]; hunger [MFOEM:000205]; interpersonal disgust [MFOEM:000022]; shame [MFOEM:000055]; sadness [MFOEM:000056]; appraisal of dangerousness [MFOEM:000103]; appraisal of causal agency [MFOEM:000075]; feeling energetic [MFOEM:000109]; anger [MFOEM:000009]; feeling tired [MFOEM:000080]; negative surprise [MFOEM:000210]; mistrust [MFOEM:000225]; emotion process [MFOEM:000001]; happiness [MFOEM:000042]; anxiety [MFOEM:000028]; appraisal as caused by an other [MFOEM:000078]; feeling at ease [MFOEM:000107]; pain [MFOEM:000203]; emotional action tendency [MFOEM:000007]; appraisal of desirability of consequences [MFOEM:000085]; feeling exhausted [MFOEM:000112]; bodily feeling [MFOEM:000202]; enjoyment [MFOEM:000218]; positive surprise [MFOEM:000209]; subjective affective feeling [MFOEM:000006]; appraisal of expectedness [MFOEM:000060]; guilt [MFOEM:000053]; core disgust [MFOEM:000020]; satisfaction [MFOEM:000169]; animal-nature disgust [MFOEM:000021]; affective process [MFOEM:000195]; appraisal of avoidability of consequences [MFOEM:000091]; appraisal of goal importance [MFOEM:000072]; interest [MFOEM:000033]; mistrust [MFOEM:000225]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>drug withdrawal syndrome [ADDICTO:0001378]; negative self-identity [ADDICTO:0001377]; binge behaviour session [ADDICTO:0001350]; addiction development [ADDICTO:0001318]; abstinence violation effect [ADDICTO:0001317]; alcohol consumption pattern [ADDICTO:0001135]; public health promotion policy [ADDICTO:0001273];public policy [ADDICTO:0001109]; financial cost of a product or service [ADDICTO:0000750]; substance use [ADDICTO:0000721]; personal stake [ADDICTO:0000179]; self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001140]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]; harmfulness [ADDICTO:0000241]</t>
+          <t>drug withdrawal syndrome [ADDICTO:0001378]; negative self-identity [ADDICTO:0001377]; binge behaviour session [ADDICTO:0001350]; addiction development [ADDICTO:0001318]; abstinence violation effect [ADDICTO:0001317]; alcohol consumption pattern [ADDICTO:0001135]; public health promotion policy [ADDICTO:0001273];public policy [ADDICTO:0001109]; financial cost of a product or service [ADDICTO:0000750]; substance use [ADDICTO:0000721]; personal stake [ADDICTO:0000179]; self-identity [ADDICTO:0000399]; social identity [ADDICTO:0001087]; group identity [ADDICTO:0000715]; subjective craving [ADDICTO:0000511]; feeling of need satisfaction [ADDICTO:0000377]; addiction [ADDICTO:0000349]; teenager [ADDICTO:0001050]; beneficial process [ADDICTO:0001303]; identity [ADDICTO:0000381]; substance dependence [ADDICTO:0001212]; adult [ADDICTO:0000352]; desire [ADDICTO:0001127]; harmfulness [ADDICTO:0000241]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/jannahastings/emotion-ontology/e3a12f2527e13aa1e4f85e6aa63c5763ea49709c/ontology/MFOEM.owl</t>
+          <t>https://raw.githubusercontent.com/jannahastings/emotion-ontology/master/ontology/MFOEM.owl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,37 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GMHO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/galenos-project/mental-health-ontology/refs/heads/main/gmho.owl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://github.com/galenos-project/mental-health-ontology/blob/407a0e714545acabfc2f54cceed4cab2a50be446/gmho.owl</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://github.com/galenos-project/mental-health-ontology/blob/407a0e714545acabfc2f54cceed4cab2a50be446/gmho.owl</t>
+          <t>https://raw.githubusercontent.com/galenos-project/mental-health-ontology/407a0e714545acabfc2f54cceed4cab2a50be446/gmho.owl</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1118,9 +1118,6 @@
 intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1118,6 +1118,11 @@
 intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>"GMHO: https://galenos.org.uk/ontologies/GMHO_"</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1013,12 +1013,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>memory [GO:0007613]; imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]; biological process [GO:0008150]</t>
+          <t>imitative learning [GO:0098596]; non-associative learning [GO:0046958]; observational learning [GO:0098597]; sensitization [GO:0046960]; habituation [GO:0046959]; biological process [GO:0008150]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>learning [GO:0007612]; observational learning [GO:0098597]</t>
+          <t>learning [GO:0007612]; observational learning [GO:0098597]; memory [GO:0007613]; behavior[GO:0007610]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1115,7 +1115,7 @@
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]</t>
+intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]; process context [GMHO:0000268]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1018,7 +1018,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>learning [GO:0007612]; observational learning [GO:0098597]; memory [GO:0007613]; behavior[GO:0007610]</t>
+          <t>learning [GO:0007612]; memory [GO:0007613]; behavior[GO:0007610]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1118,6 +1118,11 @@
 intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]; process context [GMHO:0000268]</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>"GMHO: https://galenos.org.uk/ontologies/GMHO_"</t>
